--- a/data/monetary/M_1008.xlsx
+++ b/data/monetary/M_1008.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/monetary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B1D7C-7CC2-2745-B759-D6BEC53ACBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAFC860-C2AA-4540-AAA8-06366CA8582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,15 +959,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="J1:AI68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="I1" sqref="A1:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1074,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
@@ -1097,7 +1151,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
@@ -1147,7 +1228,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1305,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1382,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>26</v>
       </c>
@@ -1318,7 +1480,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
         <v>26</v>
       </c>
@@ -1389,7 +1578,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1676,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1774,34 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="10" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1872,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>26</v>
       </c>
@@ -1673,7 +1970,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +2068,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +2166,34 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="14" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
         <v>26</v>
       </c>
@@ -1886,7 +2264,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
         <v>26</v>
       </c>
@@ -1957,7 +2362,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
         <v>26</v>
       </c>
@@ -2028,7 +2460,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="J17" t="s">
         <v>26</v>
       </c>
@@ -2099,7 +2558,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
@@ -2170,7 +2656,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>26</v>
       </c>
@@ -2241,7 +2754,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20" t="s">
         <v>26</v>
       </c>
@@ -2312,7 +2852,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +2950,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="J22" t="s">
         <v>26</v>
       </c>
@@ -2454,7 +3048,34 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="23" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="J23" t="s">
         <v>26</v>
       </c>
@@ -2525,7 +3146,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
       <c r="J24" t="s">
         <v>26</v>
       </c>
@@ -2596,7 +3244,34 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="25" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
       <c r="J25" t="s">
         <v>26</v>
       </c>
@@ -2667,7 +3342,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
       <c r="J26" t="s">
         <v>26</v>
       </c>
@@ -2738,7 +3440,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
         <v>26</v>
       </c>
@@ -2809,7 +3538,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
         <v>26</v>
       </c>
@@ -2880,7 +3636,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
       <c r="J29" t="s">
         <v>26</v>
       </c>
@@ -2951,7 +3734,34 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="30" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30" t="s">
         <v>26</v>
       </c>
@@ -3022,7 +3832,34 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="31" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
       <c r="J31" t="s">
         <v>26</v>
       </c>
@@ -3093,7 +3930,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="J32" t="s">
         <v>26</v>
       </c>
@@ -3164,7 +4028,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
       <c r="J33" t="s">
         <v>26</v>
       </c>
@@ -3235,7 +4126,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
       <c r="J34" t="s">
         <v>26</v>
       </c>
@@ -3306,7 +4224,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
       <c r="J35" t="s">
         <v>26</v>
       </c>
@@ -3377,7 +4322,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
       <c r="J36" t="s">
         <v>26</v>
       </c>
@@ -3448,7 +4420,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="J37" t="s">
         <v>26</v>
       </c>
@@ -3519,7 +4518,34 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="38" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="J38" t="s">
         <v>26</v>
       </c>
@@ -3590,7 +4616,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
       <c r="J39" t="s">
         <v>26</v>
       </c>
@@ -3661,7 +4714,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="J40" t="s">
         <v>26</v>
       </c>
@@ -3732,7 +4812,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
       <c r="J41" t="s">
         <v>26</v>
       </c>
@@ -3803,7 +4910,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
       <c r="J42" t="s">
         <v>26</v>
       </c>
@@ -3874,7 +5008,34 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="43" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
       <c r="J43" t="s">
         <v>26</v>
       </c>
@@ -3945,7 +5106,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
       <c r="J44" t="s">
         <v>26</v>
       </c>
@@ -4016,7 +5204,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
       <c r="J45" t="s">
         <v>26</v>
       </c>
@@ -4087,7 +5302,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
       <c r="J46" t="s">
         <v>26</v>
       </c>
@@ -4158,7 +5400,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
       <c r="J47" t="s">
         <v>26</v>
       </c>
@@ -4229,7 +5498,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
       <c r="J48" t="s">
         <v>26</v>
       </c>
@@ -4300,7 +5596,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
       <c r="J49" t="s">
         <v>26</v>
       </c>
@@ -4371,7 +5694,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
       <c r="J50" t="s">
         <v>26</v>
       </c>
@@ -4442,7 +5792,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
       <c r="J51" t="s">
         <v>26</v>
       </c>
@@ -4513,7 +5890,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
       <c r="J52" t="s">
         <v>26</v>
       </c>
@@ -4584,7 +5988,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
       <c r="J53" t="s">
         <v>26</v>
       </c>
@@ -4655,7 +6086,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
       <c r="J54" t="s">
         <v>26</v>
       </c>
@@ -4726,7 +6184,34 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="55" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
       <c r="J55" t="s">
         <v>26</v>
       </c>
@@ -4797,7 +6282,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
       <c r="J56" t="s">
         <v>26</v>
       </c>
@@ -4868,7 +6380,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
       <c r="J57" t="s">
         <v>26</v>
       </c>
@@ -4939,7 +6478,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
       <c r="J58" t="s">
         <v>26</v>
       </c>
@@ -5010,7 +6576,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
       <c r="J59" t="s">
         <v>26</v>
       </c>
@@ -5081,7 +6674,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
       <c r="J60" t="s">
         <v>26</v>
       </c>
@@ -5152,7 +6772,34 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="61" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
       <c r="J61" t="s">
         <v>26</v>
       </c>
@@ -5223,7 +6870,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
       <c r="J62" t="s">
         <v>26</v>
       </c>
@@ -5294,7 +6968,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
       <c r="J63" t="s">
         <v>26</v>
       </c>
@@ -5365,7 +7066,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
       <c r="J64" t="s">
         <v>26</v>
       </c>
@@ -5436,7 +7164,34 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="65" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
       <c r="J65" t="s">
         <v>26</v>
       </c>
@@ -5507,7 +7262,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
       <c r="J66" t="s">
         <v>26</v>
       </c>
@@ -5578,7 +7360,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
       <c r="J67" t="s">
         <v>26</v>
       </c>
@@ -5649,7 +7458,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="10:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
       <c r="J68" t="s">
         <v>26</v>
       </c>

--- a/data/monetary/M_1008.xlsx
+++ b/data/monetary/M_1008.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/monetary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAFC860-C2AA-4540-AAA8-06366CA8582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DB9DC-A922-0649-B006-C68ECE12B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="2740" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M_1008" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="36">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>Win</t>
+  </si>
+  <si>
+    <t>AmtWon</t>
+  </si>
+  <si>
+    <t>Clock.Information</t>
+  </si>
+  <si>
+    <t>EasyKey</t>
+  </si>
+  <si>
+    <t>ExperimentVersion</t>
   </si>
 </sst>
 </file>
@@ -962,38 +974,38 @@
   <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I68"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>

--- a/data/monetary/M_1008.xlsx
+++ b/data/monetary/M_1008.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/monetary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DB9DC-A922-0649-B006-C68ECE12B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAFC860-C2AA-4540-AAA8-06366CA8582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2740" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M_1008" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="32">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -116,18 +116,6 @@
   </si>
   <si>
     <t>Win</t>
-  </si>
-  <si>
-    <t>AmtWon</t>
-  </si>
-  <si>
-    <t>Clock.Information</t>
-  </si>
-  <si>
-    <t>EasyKey</t>
-  </si>
-  <si>
-    <t>ExperimentVersion</t>
   </si>
 </sst>
 </file>
@@ -974,38 +962,38 @@
   <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="I1" sqref="A1:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
